--- a/_site/data/all_overviews-current_1.0.xlsx
+++ b/_site/data/all_overviews-current_1.0.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Το Drive μου\OMG_2022\Database\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My_R\overview_megadatabase\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CC3CA0E-26C6-46C9-AD6D-975251D3BADB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FA7D603-C720-40CD-9E9D-883DBBCB9A90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -14594,10 +14594,7 @@
   <dimension ref="A1:P2320"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2256" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F2272" sqref="F2272"/>
+      <selection activeCell="F2272" sqref="F2272"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>

--- a/_site/data/all_overviews-current_1.0.xlsx
+++ b/_site/data/all_overviews-current_1.0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\My_R\overview_megadatabase\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E02FD0B2-FDC8-4620-93F5-8B32C1C0E946}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B83290EB-4D4F-4404-BEAB-26CEE0084151}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15805,10 +15805,10 @@
   <dimension ref="A1:P2386"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D1609" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="B1620" sqref="B1620"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
